--- a/tests/testthat/_snaps/knitxl/text3.xlsx
+++ b/tests/testthat/_snaps/knitxl/text3.xlsx
@@ -348,7 +348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
